--- a/11-09-2017.xlsx
+++ b/11-09-2017.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6195" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Algos" sheetId="1" r:id="rId1"/>
-    <sheet name="Programs" sheetId="2" r:id="rId2"/>
-    <sheet name="Python" sheetId="3" r:id="rId3"/>
+    <sheet name="Goal" sheetId="5" r:id="rId1"/>
+    <sheet name="Algos" sheetId="1" r:id="rId2"/>
+    <sheet name="Programs" sheetId="2" r:id="rId3"/>
+    <sheet name="Python" sheetId="3" r:id="rId4"/>
+    <sheet name="React" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>S.No.</t>
   </si>
@@ -53,9 +55,6 @@
     <t>Rotate the list</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Merge two unsorted arrays into a single sorted array excluding duplicate items</t>
   </si>
   <si>
@@ -65,12 +64,6 @@
     <t>Find the largest subsequence in a given sequence</t>
   </si>
   <si>
-    <t>Find all the pair of subsequences in a sequence whoes sum is a given number</t>
-  </si>
-  <si>
-    <t>Find all the triplets of subsequence in a sequence whose sum is equal to a given number</t>
-  </si>
-  <si>
     <t>Python Basics</t>
   </si>
   <si>
@@ -78,13 +71,46 @@
   </si>
   <si>
     <t>Python flask from Treehouse</t>
+  </si>
+  <si>
+    <t>Check if one sequence is a subsequence of another</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Find all the subsequences that can be made our a given sequence</t>
+  </si>
+  <si>
+    <t>Find all the pair of numbers in an array whose sum equals to a given number</t>
+  </si>
+  <si>
+    <t>Find all the triplets of numbers in an array whose sum equals to a given number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find all the subarrays that can be made out of a given array </t>
+  </si>
+  <si>
+    <t>Find the subarraye with maximum sum in a given subsequence(kadane's algo)</t>
+  </si>
+  <si>
+    <t>Python with database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete Interview Questions and Algos </t>
+  </si>
+  <si>
+    <t>Pyhton Basics</t>
+  </si>
+  <si>
+    <t>Python Flask from Treehouse</t>
+  </si>
+  <si>
+    <t>Python Django (Revise from whatever I've done so far)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +118,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,16 +148,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,11 +438,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE59038-CA52-4DAA-AA85-D55D8A735FBC}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,12 +526,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0779392-B5FC-4D82-8A64-5C39ACE85366}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,28 +606,59 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>10</v>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -556,12 +666,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59750D-07B1-4FEB-A39E-B1BBFBE4B683}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,20 +696,39 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0F64CC-FF62-4F23-8C65-EFD1F2E2D781}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/11-09-2017.xlsx
+++ b/11-09-2017.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6195" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6195" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="5" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <sheet name="Python" sheetId="3" r:id="rId4"/>
     <sheet name="React" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -91,9 +91,6 @@
     <t>Find the subarraye with maximum sum in a given subsequence(kadane's algo)</t>
   </si>
   <si>
-    <t>Python with database</t>
-  </si>
-  <si>
     <t xml:space="preserve">Complete Interview Questions and Algos </t>
   </si>
   <si>
@@ -104,13 +101,16 @@
   </si>
   <si>
     <t>Python Django (Revise from whatever I've done so far)</t>
+  </si>
+  <si>
+    <t>Python with database (Peewee, SQLachmey, Mysql, Mongo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -254,7 +254,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -431,43 +431,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE59038-CA52-4DAA-AA85-D55D8A735FBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -476,14 +476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
@@ -491,7 +491,7 @@
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -513,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -527,19 +527,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0779392-B5FC-4D82-8A64-5C39ACE85366}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="67.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -585,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6">
         <v>5</v>
       </c>
@@ -593,7 +593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -601,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -618,7 +618,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -627,7 +627,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12">
         <v>12</v>
       </c>
@@ -644,7 +644,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13">
         <v>13</v>
       </c>
@@ -653,7 +653,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14">
         <v>15</v>
       </c>
@@ -667,20 +667,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59750D-07B1-4FEB-A39E-B1BBFBE4B683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,22 +694,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -720,14 +720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0F64CC-FF62-4F23-8C65-EFD1F2E2D781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11-09-2017.xlsx
+++ b/11-09-2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6195" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>S.No.</t>
   </si>
@@ -104,6 +104,14 @@
   </si>
   <si>
     <t>Python with database (Peewee, SQLachmey, Mysql, Mongo)</t>
+  </si>
+  <si>
+    <t>Find Sum of all the numbers present in the String - 'abc23def27' should be 23+27=50</t>
+  </si>
+  <si>
+    <t>Sort a sentence in ascending or descending order:
+Input: Hello how are you?
+Output: are Hello how you?</t>
   </si>
 </sst>
 </file>
@@ -431,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,10 +536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,6 +669,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -670,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/11-09-2017.xlsx
+++ b/11-09-2017.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6195" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6195" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="5" r:id="rId1"/>
@@ -14,8 +14,8 @@
     <sheet name="React" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>S.No.</t>
   </si>
@@ -113,12 +113,15 @@
 Input: Hello how are you?
 Output: are Hello how you?</t>
   </si>
+  <si>
+    <t>how to do this without any built in</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,41 +442,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -484,14 +487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
@@ -499,7 +502,7 @@
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -521,7 +524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -535,19 +538,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -569,7 +573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -577,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -585,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -593,7 +597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -601,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -609,7 +613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -617,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -626,7 +630,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -635,7 +639,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -643,7 +647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -652,7 +656,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -661,7 +665,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -669,15 +673,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="45">
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -691,20 +699,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,22 +726,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -744,14 +752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11-09-2017.xlsx
+++ b/11-09-2017.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6195" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Goal" sheetId="5" r:id="rId1"/>
@@ -14,8 +14,8 @@
     <sheet name="React" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>S.No.</t>
   </si>
@@ -116,12 +116,15 @@
   <si>
     <t>how to do this without any built in</t>
   </si>
+  <si>
+    <t>Done</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,41 +445,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -487,14 +490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
@@ -502,7 +505,7 @@
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -524,12 +527,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -538,20 +544,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="67.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -573,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -581,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -589,7 +595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -597,7 +603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6">
         <v>5</v>
       </c>
@@ -605,7 +611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -613,7 +619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -621,7 +627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>9</v>
       </c>
@@ -630,7 +636,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>10</v>
       </c>
@@ -639,7 +645,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>11</v>
       </c>
@@ -647,7 +653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12">
         <v>12</v>
       </c>
@@ -656,7 +662,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13">
         <v>13</v>
       </c>
@@ -665,7 +671,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14">
         <v>15</v>
       </c>
@@ -673,7 +679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30">
       <c r="A15">
         <v>16</v>
       </c>
@@ -685,7 +691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="45">
       <c r="A16">
         <v>17</v>
       </c>
@@ -699,20 +705,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,22 +732,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -752,14 +758,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
